--- a/xlsx_outputs/1feb.xlsx
+++ b/xlsx_outputs/1feb.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,10 +425,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date / Time of Action LoggedA pplication Type Command Device Name User Name Control Command Reason Key Workstation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
+          <t>Date / Time of Action</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>LoggedA pplication</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Command</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Control Command</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Workstation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -438,7 +482,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 gl75dlf sixt computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>gl75dlf sixt</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -450,7 +534,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 gl25fuh sixt computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>gl25fuh sixt</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -462,7 +586,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 gl25euh sixt computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>gl25euh sixt</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -474,7 +638,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 YE75KPO SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>YE75KPO SIXT</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -486,7 +690,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 YB75AWW computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>YB75AWW</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -498,7 +742,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 VISTA PERMIT NOT VALID computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VISTA PERMIT NOT VALID</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -510,7 +794,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXXTTTTTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SIXXTTTTTTTTTT</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -522,7 +846,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SIXTTTTTTT</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -534,7 +898,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SIXTTTTTTT</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -546,7 +950,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SIXTTTTTTT</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -558,7 +1002,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SIXTTTTTT</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -570,7 +1054,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SIXTTTTTT</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -582,7 +1106,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SIXTTTTT</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -594,7 +1158,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SIXTTTTT</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -606,7 +1210,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SIXTTTTT</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -618,7 +1262,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SIXTTTTT</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -630,7 +1314,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIXTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SIXTTTTT</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -642,7 +1366,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 SIIXTTTTTTT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SIIXTTTTTTT</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -654,7 +1418,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 RV25WWO SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>RV25WWO SIXT</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -666,7 +1470,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 RJ75KZC SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>RJ75KZC SIXT</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -678,7 +1522,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 PERMIT 1436 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PERMIT 1436</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -690,7 +1574,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 OW75TZ SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>OW75TZ SIXT</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -702,7 +1626,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 OW75LXO SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>OW75LXO SIXT</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -714,7 +1678,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate closed Exit 1 Wehibe Henok 42251 MISTAKE computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Barrier gate closed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>42251</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>MISTAKE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -726,7 +1730,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 GL75ZXB SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>GL75ZXB SIXT</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -738,7 +1782,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 GL75HJJ SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>GL75HJJ SIXT</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -750,7 +1834,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 GL75DLF SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>GL75DLF SIXT</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -762,7 +1886,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 GL25EUH SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GL25EUH SIXT</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -774,7 +1938,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 GD75DUA SIXT computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>GD75DUA SIXT</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -786,7 +1990,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Device Control Control Barrier gate opened Exit 1 Wehibe Henok 42250 ANPR OFLINE computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Barrier gate opened</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>42250</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ANPR OFLINE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -798,7 +2042,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -810,7 +2090,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Device Control Control Initialization Exit 1 Wehibe Henok 42048 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Initialization</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>42048</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -822,7 +2138,43 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -834,7 +2186,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -846,7 +2234,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -858,7 +2282,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -870,7 +2326,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -882,7 +2370,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -894,7 +2414,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -906,7 +2458,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -918,7 +2502,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -930,7 +2546,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -942,7 +2590,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -954,7 +2634,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -966,7 +2678,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -978,7 +2722,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -990,7 +2766,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1002,7 +2810,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1014,7 +2854,39 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1026,7 +2898,39 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1038,7 +2942,39 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1050,7 +2986,39 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1062,7 +3030,39 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1074,7 +3074,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1086,7 +3118,39 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1098,7 +3162,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1110,7 +3206,39 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1122,7 +3250,39 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1134,7 +3294,39 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1146,7 +3338,39 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1158,7 +3382,39 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1170,7 +3426,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1182,7 +3470,39 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1194,7 +3514,39 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1206,7 +3558,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1218,7 +3602,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1230,7 +3646,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1242,7 +3690,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 AUTO-NOT_TOLERATE ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>AUTO-NOT_TOLERATE</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1254,7 +3734,39 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Alarm Manager Alarm Medium is not valid anymore Exit 1 CTRL_32780 OCCURED ChelseaZR</t>
+          <t>Alarm Manager</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Alarm</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Medium is not valid anymore</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CTRL_32780</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>OCCURED</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ChelseaZR</t>
         </is>
       </c>
     </row>
@@ -1269,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,10 +3792,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date / Time of Action LoggedA pplication Type Command Device Name User Name Control Command Reason Key Workstation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
+          <t>Date / Time of Action</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>LoggedA pplication</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Command</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Device Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Control Command</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Workstation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1293,7 +3849,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -1305,7 +3895,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>45575</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -1317,7 +3941,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>45575</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -1329,7 +3987,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>45575</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
@@ -1341,7 +4033,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Device Control Control Card event Exit 1 Wehibe Henok 45575 computerno: 1081 / deviceno: 201 / facilityno: 1338 entervo_V2R5M6</t>
+          <t>Device Control</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Card event</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exit 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wehibe Henok</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>45575</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>computerno:  1081 / deviceno:  201 / facilityno:  1338</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>entervo_V2R5M6</t>
         </is>
       </c>
     </row>
